--- a/01 秋招资料/招聘信息汇总.xlsx
+++ b/01 秋招资料/招聘信息汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iiixv/Documents/Notebook/01 秋招资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E083908-E697-B843-87A5-F276970D89D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960BA122-B03F-B249-847C-CF85DCEAA4C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国 软件测评中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zeku</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +176,38 @@
   </si>
   <si>
     <t>科大讯飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国软件测评中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元戎启行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校招链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,21 +231,56 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -226,9 +289,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,217 +616,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5272D451-109C-3F4D-8230-0B9995B3B1B8}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="24">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="22">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" ht="22">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" ht="22">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" ht="22">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" ht="22">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:6" ht="22">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" ht="22">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" ht="22">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" ht="22">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" ht="22">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6" ht="22">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:6" ht="22">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6" ht="22">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:6" ht="22">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" ht="22">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" ht="22">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" ht="22">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" ht="22">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" ht="22">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" ht="22">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" ht="22">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" ht="22">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" ht="22">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" ht="22">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" ht="22">
+      <c r="A27" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="22">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" ht="22">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" ht="22">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" ht="22">
+      <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" ht="22">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" ht="22">
+      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" ht="22">
+      <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" ht="22">
+      <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" ht="22">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" ht="22">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="22">
+      <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" ht="22">
+      <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" ht="22">
+      <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" ht="22">
+      <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>38</v>
+    <row r="42" spans="1:1" ht="22">
+      <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="22">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/01 秋招资料/招聘信息汇总.xlsx
+++ b/01 秋招资料/招聘信息汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iiixv/Documents/Notebook/01 秋招资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960BA122-B03F-B249-847C-CF85DCEAA4C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6FC35E-2DE9-264E-BEB8-B01EA39CE784}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
+    <workbookView xWindow="-51200" yWindow="980" windowWidth="25600" windowHeight="28800" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花期金融</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大疆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蔚来提前批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>旷视科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网易互联网】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帆软</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,11 +191,244 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投递岗位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cstc.org.cn/</t>
+  </si>
+  <si>
+    <t>简历发送至邮箱 cstchr@cstc.org.cn
+“应聘岗位-姓名-性别-学位-学校”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业控制系统及信息安全、网络空间安全、大数据治理、集成电路、软件标准符合性、信息技术应用创新、云计算、智能终端软件、智能网联汽车、智能制造、工业互联网、智能机器人等方向测试工程师；数据治理、电子政务评估师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/zeku/47716#/jobs?zhineng=84934</t>
+  </si>
+  <si>
+    <t>官网投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.19（提前批）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递/拟投递岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.mihoyo.com/#/campus/position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.51job.com/chinatelecom2022/page/about2.html</t>
+  </si>
+  <si>
+    <t>花旗金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.nowcoder.com/careers/CSTC2021/101208?headNav=www</t>
+  </si>
+  <si>
+    <t>已截止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://we.dji.com/zh-CN/campus</t>
+  </si>
+  <si>
+    <t>应聘方式（内推码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师（研发部-深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.huawei.com/reccampportal/portal5/campus-recruitment.html</t>
+  </si>
+  <si>
+    <t>https://jobs.bytedance.com/campus/?utm_source=SEMbaidu&amp;utm_device=pc&amp;utm_keyword=20220074</t>
+  </si>
+  <si>
+    <t>提前批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师-基础架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程终止(2022-08-05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔚来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.nio.com/#/</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/megviihr/38642#/</t>
+  </si>
+  <si>
+    <t>内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.11（提前批）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师-武汉</t>
+  </si>
+  <si>
+    <t>业务复筛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.baidu.com/jobs/</t>
+  </si>
+  <si>
+    <t>8.26(内推)
+10.16（网申）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.lenovo.com.cn/campus</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/shopee/2962#/</t>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/campus/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.microsoft.com/us/en</t>
+  </si>
+  <si>
+    <t>https://campushr.hikvision.com/home</t>
+  </si>
+  <si>
+    <t>http://www.caep-scns.ac.cn/career</t>
+  </si>
+  <si>
+    <t>https://jobs.lilith.com/</t>
+  </si>
+  <si>
+    <t>未开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hotjob.cn/wt/GoerTek/web/index/CompGoerTekIndex_campus</t>
+  </si>
+  <si>
+    <t>https://qualcomm.wd5.myworkdayjobs.com/zh-CN/External</t>
+  </si>
+  <si>
+    <t>https://campus.meituan.com/</t>
+  </si>
+  <si>
+    <t>https://chinacampus.jobs.intel.cn/intel/home/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://360campus.zhiye.com/jobs</t>
+  </si>
+  <si>
+    <t>https://campus.jd.com/#/?type=present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.sensetime.com/SU604c56f9bef57c3d1a752c60/pb/school.html</t>
+  </si>
+  <si>
+    <t>网易互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易游戏互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易雷火游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/net/position</t>
+  </si>
+  <si>
+    <t>https://leihuo.163.com/campus/#/full</t>
+  </si>
+  <si>
+    <t>https://game.campus.163.com/position/12?sc=34</t>
+  </si>
+  <si>
+    <t>https://join.fanruan.com/campus</t>
+  </si>
+  <si>
+    <t>https://campus.ctrip.com/campus-recruitment/trip/37757#/</t>
+  </si>
+  <si>
+    <t>https://www.momenta.cn/join.html</t>
+  </si>
+  <si>
+    <t>https://inovance.zhiye.com/Campuslist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cmbnt.cmbchina.com/pages/recruit/position_list.html?menu_index=0&amp;type=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mywind.zhiye.com/campus</t>
+  </si>
+  <si>
+    <t>https://www.uobchina.com.cn/general/url_redirection.page?reURL=https://www.uobgroup.com/careers-zh/index.page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.iflytek.com/official-pc/jobList?index=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/deeproute/6487#/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +465,23 @@
       <name val="华文楷体"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -284,27 +522,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -616,250 +870,865 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5272D451-109C-3F4D-8230-0B9995B3B1B8}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="3" customWidth="1"/>
+    <col min="6" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="47.5" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="85">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="22">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="23">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="22">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="23">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="22">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7.04</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="23">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="22">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7.04</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="23">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="23">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="22">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7.06</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="23">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="22">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="22">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="7">
+        <v>44769</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="23">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="23">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="22">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="6">
+        <v>7.11</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="34">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="22">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6">
+        <v>7.14</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="23">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="22">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6">
+        <v>7.15</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="23">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="22">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7">
+        <v>44760</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="23">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="22">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="23">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="22">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="23">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="22">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="23">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="22">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="23">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="23">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" ht="23">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>10.01</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="23">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" ht="23">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>8.31</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" ht="23">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" ht="23">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7">
+        <v>44769</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="22">
+      <c r="A26" s="1">
+        <v>360</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7">
+        <v>44769</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="23">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7">
+        <v>44774</v>
+      </c>
+      <c r="E27" s="7">
+        <v>44862</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" ht="23">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" ht="23">
+      <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7">
+        <v>44766</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" ht="23">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7">
+        <v>44766</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" ht="23">
+      <c r="A31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7">
+        <v>44766</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" ht="23">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="23">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" ht="23">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" ht="23">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="23">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6">
+        <v>8.02</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" ht="23">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" ht="23">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="22">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="22">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="22">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="22">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="22">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="22">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="22">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="22">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="22">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="22">
-      <c r="A27" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="22">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="22">
-      <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="22">
-      <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="22">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="22">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="22">
-      <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="22">
-      <c r="A34" s="2" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" ht="23">
+      <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="22">
-      <c r="A35" s="2" t="s">
+      <c r="B39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" ht="23">
+      <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="22">
-      <c r="A36" s="2" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" ht="34">
+      <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="22">
-      <c r="A37" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="22">
-      <c r="A38" s="2" t="s">
+      <c r="B41" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" ht="23">
+      <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="22">
-      <c r="A39" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="22">
-      <c r="A40" s="2" t="s">
+      <c r="B42" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" ht="23">
+      <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="22">
-      <c r="A41" s="2" t="s">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" ht="23">
+      <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="22">
-      <c r="A42" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="22">
-      <c r="A43" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="简历发送至邮箱cstchr@cstc.org.cn" xr:uid="{8539FA52-D675-9742-B992-73E04DCCC040}"/>
+    <hyperlink ref="B4" r:id="rId2" location="/campus/position" xr:uid="{D9DC9A7E-32CF-3F43-BACA-7BACFC3D5F9C}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{B8CA9743-E09B-CA46-812D-58C747C74281}"/>
+    <hyperlink ref="B24" r:id="rId4" xr:uid="{0D5E7EFB-8AAC-BC4A-B1C2-93B9A41CAC48}"/>
+    <hyperlink ref="B27" r:id="rId5" location="/?type=present" xr:uid="{AF28895E-3DAC-404C-9674-2BD64BD01589}"/>
+    <hyperlink ref="B36" r:id="rId6" xr:uid="{CADD60E3-5E0D-5648-A615-01D9169906D9}"/>
+    <hyperlink ref="B37" r:id="rId7" xr:uid="{82B7DB51-5E74-444D-8B56-4901746D9263}"/>
+    <hyperlink ref="B41" r:id="rId8" xr:uid="{F3A44883-606C-B74F-BBE8-50AA273C7580}"/>
+    <hyperlink ref="B42" r:id="rId9" xr:uid="{14524C42-6F48-274C-9670-66C89E2CDC4D}"/>
+    <hyperlink ref="B44" r:id="rId10" location="/" xr:uid="{CF5DAE84-C8C1-644E-BA17-DC52AA2CF6F3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01 秋招资料/招聘信息汇总.xlsx
+++ b/01 秋招资料/招聘信息汇总.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iiixv/Documents/Notebook/01 秋招资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6FC35E-2DE9-264E-BEB8-B01EA39CE784}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748A7840-2383-AC47-A2F9-6800FD0D8E65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="980" windowWidth="25600" windowHeight="28800" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="正式批" sheetId="1" r:id="rId1"/>
+    <sheet name="提前批" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="111">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,6 +431,17 @@
   <si>
     <t>https://app.mokahr.com/campus_apply/deeproute/6487#/</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/megviihr/38642#/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.bankcomm.com/getPositionById.do?positionId=31720</t>
   </si>
 </sst>
 </file>
@@ -530,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,6 +566,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5272D451-109C-3F4D-8230-0B9995B3B1B8}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1081,99 +1096,87 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="34">
+    <row r="9" spans="1:10" ht="23">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="7">
-        <v>44769</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="23">
       <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>70</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10.31</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="23">
+    <row r="11" spans="1:10" ht="34">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="6">
-        <v>8.0500000000000007</v>
+        <v>49</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7.14</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="6">
-        <v>7.11</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="34">
+    <row r="12" spans="1:10" ht="23">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="6">
-        <v>7.14</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>7.15</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1181,19 +1184,21 @@
     </row>
     <row r="13" spans="1:10" ht="23">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="6">
-        <v>7.15</v>
+      <c r="D13" s="7">
+        <v>44760</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1201,21 +1206,15 @@
     </row>
     <row r="14" spans="1:10" ht="23">
       <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="7">
-        <v>44760</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1223,10 +1222,10 @@
     </row>
     <row r="15" spans="1:10" ht="23">
       <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1239,10 +1238,10 @@
     </row>
     <row r="16" spans="1:10" ht="23">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1255,11 +1254,9 @@
     </row>
     <row r="17" spans="1:10" ht="23">
       <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>82</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1271,9 +1268,11 @@
     </row>
     <row r="18" spans="1:10" ht="23">
       <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1285,13 +1284,15 @@
     </row>
     <row r="19" spans="1:10" ht="23">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1301,16 +1302,16 @@
     </row>
     <row r="20" spans="1:10" ht="23">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>10.01</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1319,16 +1320,14 @@
     </row>
     <row r="21" spans="1:10" ht="23">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <v>10.01</v>
-      </c>
+      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1337,14 +1336,16 @@
     </row>
     <row r="22" spans="1:10" ht="23">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6">
+        <v>8.31</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1353,16 +1354,14 @@
     </row>
     <row r="23" spans="1:10" ht="23">
       <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>88</v>
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6">
-        <v>8.31</v>
-      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1371,13 +1370,15 @@
     </row>
     <row r="24" spans="1:10" ht="23">
       <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>89</v>
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="7">
+        <v>44769</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1385,9 +1386,9 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="23">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
+    <row r="25" spans="1:10" ht="22">
+      <c r="A25" s="1">
+        <v>360</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>90</v>
@@ -1403,18 +1404,20 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="22">
-      <c r="A26" s="1">
-        <v>360</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>90</v>
+    <row r="26" spans="1:10" ht="23">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="7">
-        <v>44769</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>44774</v>
+      </c>
+      <c r="E26" s="7">
+        <v>44862</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1423,18 +1426,16 @@
     </row>
     <row r="27" spans="1:10" ht="23">
       <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>91</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="7">
-        <v>44774</v>
-      </c>
-      <c r="E27" s="7">
-        <v>44862</v>
-      </c>
+      <c r="D27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1443,14 +1444,14 @@
     </row>
     <row r="28" spans="1:10" ht="23">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>85</v>
+      <c r="D28" s="7">
+        <v>44766</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1461,10 +1462,10 @@
     </row>
     <row r="29" spans="1:10" ht="23">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7">
@@ -1479,10 +1480,10 @@
     </row>
     <row r="30" spans="1:10" ht="23">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7">
@@ -1497,15 +1498,13 @@
     </row>
     <row r="31" spans="1:10" ht="23">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="7">
-        <v>44766</v>
-      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -1515,11 +1514,9 @@
     </row>
     <row r="32" spans="1:10" ht="23">
       <c r="A32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>99</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1531,9 +1528,11 @@
     </row>
     <row r="33" spans="1:10" ht="23">
       <c r="A33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1545,10 +1544,10 @@
     </row>
     <row r="34" spans="1:10" ht="23">
       <c r="A34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>100</v>
+        <v>28</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1561,13 +1560,15 @@
     </row>
     <row r="35" spans="1:10" ht="23">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6">
+        <v>8.02</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -1577,15 +1578,13 @@
     </row>
     <row r="36" spans="1:10" ht="23">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="6">
-        <v>8.02</v>
-      </c>
+      <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -1595,11 +1594,9 @@
     </row>
     <row r="37" spans="1:10" ht="23">
       <c r="A37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1611,9 +1608,11 @@
     </row>
     <row r="38" spans="1:10" ht="23">
       <c r="A38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1625,11 +1624,9 @@
     </row>
     <row r="39" spans="1:10" ht="23">
       <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1639,11 +1636,13 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" ht="23">
+    <row r="40" spans="1:10" ht="34">
       <c r="A40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1653,12 +1652,12 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" ht="34">
+    <row r="41" spans="1:10" ht="23">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1671,11 +1670,9 @@
     </row>
     <row r="42" spans="1:10" ht="23">
       <c r="A42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>106</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1687,9 +1684,11 @@
     </row>
     <row r="43" spans="1:10" ht="23">
       <c r="A43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1701,33 +1700,208 @@
     </row>
     <row r="44" spans="1:10" ht="23">
       <c r="A44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="8">
+        <v>44781</v>
+      </c>
+      <c r="E44" s="8">
+        <v>44850</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="简历发送至邮箱cstchr@cstc.org.cn" xr:uid="{8539FA52-D675-9742-B992-73E04DCCC040}"/>
     <hyperlink ref="B4" r:id="rId2" location="/campus/position" xr:uid="{D9DC9A7E-32CF-3F43-BACA-7BACFC3D5F9C}"/>
-    <hyperlink ref="B15" r:id="rId3" xr:uid="{B8CA9743-E09B-CA46-812D-58C747C74281}"/>
-    <hyperlink ref="B24" r:id="rId4" xr:uid="{0D5E7EFB-8AAC-BC4A-B1C2-93B9A41CAC48}"/>
-    <hyperlink ref="B27" r:id="rId5" location="/?type=present" xr:uid="{AF28895E-3DAC-404C-9674-2BD64BD01589}"/>
-    <hyperlink ref="B36" r:id="rId6" xr:uid="{CADD60E3-5E0D-5648-A615-01D9169906D9}"/>
-    <hyperlink ref="B37" r:id="rId7" xr:uid="{82B7DB51-5E74-444D-8B56-4901746D9263}"/>
-    <hyperlink ref="B41" r:id="rId8" xr:uid="{F3A44883-606C-B74F-BBE8-50AA273C7580}"/>
-    <hyperlink ref="B42" r:id="rId9" xr:uid="{14524C42-6F48-274C-9670-66C89E2CDC4D}"/>
-    <hyperlink ref="B44" r:id="rId10" location="/" xr:uid="{CF5DAE84-C8C1-644E-BA17-DC52AA2CF6F3}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{B8CA9743-E09B-CA46-812D-58C747C74281}"/>
+    <hyperlink ref="B23" r:id="rId4" xr:uid="{0D5E7EFB-8AAC-BC4A-B1C2-93B9A41CAC48}"/>
+    <hyperlink ref="B26" r:id="rId5" location="/?type=present" xr:uid="{AF28895E-3DAC-404C-9674-2BD64BD01589}"/>
+    <hyperlink ref="B35" r:id="rId6" xr:uid="{CADD60E3-5E0D-5648-A615-01D9169906D9}"/>
+    <hyperlink ref="B36" r:id="rId7" xr:uid="{82B7DB51-5E74-444D-8B56-4901746D9263}"/>
+    <hyperlink ref="B40" r:id="rId8" xr:uid="{F3A44883-606C-B74F-BBE8-50AA273C7580}"/>
+    <hyperlink ref="B41" r:id="rId9" xr:uid="{14524C42-6F48-274C-9670-66C89E2CDC4D}"/>
+    <hyperlink ref="B43" r:id="rId10" location="/" xr:uid="{CF5DAE84-C8C1-644E-BA17-DC52AA2CF6F3}"/>
+    <hyperlink ref="B10" r:id="rId11" location="/" xr:uid="{D767FC67-110A-D64B-850F-E404A986EE6B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDE6773-6D05-8241-8B0D-D308419A46FA}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="23">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="23">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="6">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7.11</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="23">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="23">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="34">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="7">
+        <v>44769</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{93CB1DBC-6D08-DC42-8B47-777AAE22A06C}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{3B1619E2-5913-B74B-B36D-C3CEDBE554C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 秋招资料/招聘信息汇总.xlsx
+++ b/01 秋招资料/招聘信息汇总.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iiixv/Documents/Notebook/01 秋招资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748A7840-2383-AC47-A2F9-6800FD0D8E65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9D3811-0C2E-F749-AED2-A45B8C4D2533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
   </bookViews>
   <sheets>
-    <sheet name="正式批" sheetId="1" r:id="rId1"/>
-    <sheet name="提前批" sheetId="2" r:id="rId2"/>
+    <sheet name="信息汇总" sheetId="1" r:id="rId1"/>
+    <sheet name="正式批" sheetId="3" r:id="rId2"/>
+    <sheet name="提前批" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,117 +332,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://app.mokahr.com/campus_apply/shopee/2962#/</t>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/campus/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.microsoft.com/us/en</t>
+  </si>
+  <si>
+    <t>https://campushr.hikvision.com/home</t>
+  </si>
+  <si>
+    <t>http://www.caep-scns.ac.cn/career</t>
+  </si>
+  <si>
+    <t>https://jobs.lilith.com/</t>
+  </si>
+  <si>
+    <t>未开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hotjob.cn/wt/GoerTek/web/index/CompGoerTekIndex_campus</t>
+  </si>
+  <si>
+    <t>https://qualcomm.wd5.myworkdayjobs.com/zh-CN/External</t>
+  </si>
+  <si>
+    <t>https://chinacampus.jobs.intel.cn/intel/home/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://360campus.zhiye.com/jobs</t>
+  </si>
+  <si>
+    <t>https://campus.jd.com/#/?type=present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.sensetime.com/SU604c56f9bef57c3d1a752c60/pb/school.html</t>
+  </si>
+  <si>
+    <t>网易互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易游戏互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易雷火游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/net/position</t>
+  </si>
+  <si>
+    <t>https://leihuo.163.com/campus/#/full</t>
+  </si>
+  <si>
+    <t>https://game.campus.163.com/position/12?sc=34</t>
+  </si>
+  <si>
+    <t>https://join.fanruan.com/campus</t>
+  </si>
+  <si>
+    <t>https://campus.ctrip.com/campus-recruitment/trip/37757#/</t>
+  </si>
+  <si>
+    <t>https://www.momenta.cn/join.html</t>
+  </si>
+  <si>
+    <t>https://inovance.zhiye.com/Campuslist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cmbnt.cmbchina.com/pages/recruit/position_list.html?menu_index=0&amp;type=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mywind.zhiye.com/campus</t>
+  </si>
+  <si>
+    <t>https://www.uobchina.com.cn/general/url_redirection.page?reURL=https://www.uobgroup.com/careers-zh/index.page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.iflytek.com/official-pc/jobList?index=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/deeproute/6487#/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/megviihr/38642#/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.bankcomm.com/getPositionById.do?positionId=31720</t>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.jd.com/#/myDeliver?type=present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.meituan.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yADswEu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.meituan.com/apply-record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云计算开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0Y9U47M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://we.dji.com/zh-CN/campus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.iflytek.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.huawei.com/reccampportal/portal5/campus-recruitment.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（西安）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://talent.lenovo.com.cn/campus</t>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/shopee/2962#/</t>
-  </si>
-  <si>
-    <t>https://careers.oppo.com/campus/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://careers.microsoft.com/us/en</t>
-  </si>
-  <si>
-    <t>https://campushr.hikvision.com/home</t>
-  </si>
-  <si>
-    <t>http://www.caep-scns.ac.cn/career</t>
-  </si>
-  <si>
-    <t>https://jobs.lilith.com/</t>
-  </si>
-  <si>
-    <t>未开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hotjob.cn/wt/GoerTek/web/index/CompGoerTekIndex_campus</t>
-  </si>
-  <si>
-    <t>https://qualcomm.wd5.myworkdayjobs.com/zh-CN/External</t>
-  </si>
-  <si>
-    <t>https://campus.meituan.com/</t>
-  </si>
-  <si>
-    <t>https://chinacampus.jobs.intel.cn/intel/home/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.lenovo.com.cn/resume/myapply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://360campus.zhiye.com/jobs</t>
-  </si>
-  <si>
-    <t>https://campus.jd.com/#/?type=present</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hr.sensetime.com/SU604c56f9bef57c3d1a752c60/pb/school.html</t>
-  </si>
-  <si>
-    <t>网易互联网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易游戏互娱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易雷火游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.163.com/app/net/position</t>
-  </si>
-  <si>
-    <t>https://leihuo.163.com/campus/#/full</t>
-  </si>
-  <si>
-    <t>https://game.campus.163.com/position/12?sc=34</t>
-  </si>
-  <si>
-    <t>https://join.fanruan.com/campus</t>
-  </si>
-  <si>
-    <t>https://campus.ctrip.com/campus-recruitment/trip/37757#/</t>
-  </si>
-  <si>
-    <t>https://www.momenta.cn/join.html</t>
-  </si>
-  <si>
-    <t>https://inovance.zhiye.com/Campuslist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cmbnt.cmbchina.com/pages/recruit/position_list.html?menu_index=0&amp;type=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mywind.zhiye.com/campus</t>
-  </si>
-  <si>
-    <t>https://www.uobchina.com.cn/general/url_redirection.page?reURL=https://www.uobgroup.com/careers-zh/index.page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.iflytek.com/official-pc/jobList?index=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/deeproute/6487#/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/megviihr/38642#/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://job.bankcomm.com/getPositionById.do?positionId=31720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS3PAJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端开发工程师-Java（南京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.iflytek.com/official-pc/delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://360campus.zhiye.com/form?fromPage=printResume&amp;id=357293874&amp;jobAdId=46f3e849-81b4-4076-a792-0a68f4d000b3&amp;wishIndex=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -542,7 +629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,6 +656,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -887,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5272D451-109C-3F4D-8230-0B9995B3B1B8}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A4" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1119,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>72</v>
@@ -1162,32 +1252,12 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="23">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="6">
-        <v>7.15</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
     <row r="13" spans="1:10" ht="23">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>49</v>
@@ -1209,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1225,7 +1295,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1241,7 +1311,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1271,7 +1341,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1287,11 +1357,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1305,7 +1375,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1323,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1338,8 +1408,8 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>88</v>
+      <c r="B22" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1357,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1372,8 +1442,8 @@
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>90</v>
+      <c r="B24" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="7">
@@ -1391,7 +1461,7 @@
         <v>360</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="7">
@@ -1409,7 +1479,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="7">
@@ -1429,11 +1499,11 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1444,10 +1514,10 @@
     </row>
     <row r="28" spans="1:10" ht="23">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="7">
@@ -1462,10 +1532,10 @@
     </row>
     <row r="29" spans="1:10" ht="23">
       <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7">
@@ -1480,10 +1550,10 @@
     </row>
     <row r="30" spans="1:10" ht="23">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7">
@@ -1501,7 +1571,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1531,7 +1601,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1547,7 +1617,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1563,7 +1633,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6">
@@ -1581,7 +1651,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1611,7 +1681,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1641,7 +1711,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1657,7 +1727,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1687,7 +1757,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1700,10 +1770,10 @@
     </row>
     <row r="44" spans="1:10" ht="23">
       <c r="A44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>49</v>
@@ -1729,12 +1799,295 @@
     <hyperlink ref="B41" r:id="rId9" xr:uid="{14524C42-6F48-274C-9670-66C89E2CDC4D}"/>
     <hyperlink ref="B43" r:id="rId10" location="/" xr:uid="{CF5DAE84-C8C1-644E-BA17-DC52AA2CF6F3}"/>
     <hyperlink ref="B10" r:id="rId11" location="/" xr:uid="{D767FC67-110A-D64B-850F-E404A986EE6B}"/>
+    <hyperlink ref="B22" r:id="rId12" xr:uid="{4F5E0212-0249-1C4F-A797-98BF50928E6A}"/>
+    <hyperlink ref="B24" r:id="rId13" xr:uid="{8951C0AF-0AA6-EB4B-8A42-A0200116F602}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C510C1-FE06-2A40-90B2-49BDE09299BE}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="48.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="46">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="9">
+        <v>44788</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="9">
+        <v>44774</v>
+      </c>
+      <c r="J2" s="9">
+        <v>44862</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="46">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="9">
+        <v>44788</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="9">
+        <v>44774</v>
+      </c>
+      <c r="J3" s="9">
+        <v>44803</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="46">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="9">
+        <v>44788</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="9">
+        <v>44774</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="46">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="9">
+        <v>44788</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="9">
+        <v>44753</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="46">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="9">
+        <v>44754</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="46">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="9">
+        <v>44788</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="92">
+      <c r="A8" s="1">
+        <v>360</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="9">
+        <v>44788</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" location="/myDeliver?type=present" xr:uid="{0BAD52ED-8C4A-AD4D-B652-3AB1C8CD849B}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{7E30B503-F015-7A4F-A35D-CF5FC4CD8A42}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{8E197F2E-9578-4642-9DAE-7A12B7DCDB97}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{3FF865D0-2A17-AE4B-85F6-96616394ACAA}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{98945A25-3DDB-274D-8CD0-13A271AAE80D}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{DB62FDA1-451D-0543-A3E0-A30D25988CE3}"/>
+    <hyperlink ref="B2" r:id="rId7" location="/?type=present" xr:uid="{03660D8E-D78E-934C-B91E-AE5F036FC39C}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{1AAE49A6-3AA4-1446-A5C0-C19E3468ABE0}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{43A30637-3B21-8444-8971-E6C5F3A38BB5}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{F7E59D7B-B1AA-8D49-A188-1164C2F3D8B2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDE6773-6D05-8241-8B0D-D308419A46FA}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -1844,7 +2197,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1860,7 +2213,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1871,7 +2224,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="34">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="51">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>

--- a/01 秋招资料/招聘信息汇总.xlsx
+++ b/01 秋招资料/招聘信息汇总.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iiixv/Documents/Notebook/01 秋招资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9D3811-0C2E-F749-AED2-A45B8C4D2533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4897F7-E9C6-714B-812C-6EB93BB64A73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
   </bookViews>
   <sheets>
     <sheet name="信息汇总" sheetId="1" r:id="rId1"/>
-    <sheet name="正式批" sheetId="3" r:id="rId2"/>
+    <sheet name="投递信息" sheetId="3" r:id="rId2"/>
     <sheet name="提前批" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="157">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,11 +206,6 @@
   </si>
   <si>
     <t>https://www.cstc.org.cn/</t>
-  </si>
-  <si>
-    <t>简历发送至邮箱 cstchr@cstc.org.cn
-“应聘岗位-姓名-性别-学位-学校”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -528,6 +523,102 @@
   </si>
   <si>
     <t>筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/glodon/25288#/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广联达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/glodon/25288#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTANFDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inovance.zhiye.com/</t>
+  </si>
+  <si>
+    <t>汇川科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用软件开发工程师(西安)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ke.zhiye.com/Portal/Apply/Index</t>
+  </si>
+  <si>
+    <t>贝壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选-笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.ke.com/</t>
+  </si>
+  <si>
+    <t>Java开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inovance.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://game.campus.163.com/personal</t>
+  </si>
+  <si>
+    <t>https://game.campus.163.com/home</t>
+  </si>
+  <si>
+    <t>引擎支持工程师/客户端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/campus/record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端工程师(成都)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/personal/apply</t>
+  </si>
+  <si>
+    <t>网易互联网-云音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/index</t>
+  </si>
+  <si>
+    <t>Java开发工程师(杭州)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nio.jobs.feishu.cn/campus/position/application?spread=SAYV33H</t>
+  </si>
+  <si>
+    <t>校招-后端开发工程师-整车研发（第二志愿）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,26 +1066,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5272D451-109C-3F4D-8230-0B9995B3B1B8}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A33" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="3" customWidth="1"/>
-    <col min="6" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="47.5" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="4" width="16" style="3" customWidth="1"/>
+    <col min="5" max="6" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="47.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25">
+    <row r="1" spans="1:9" ht="25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1002,56 +1092,50 @@
         <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="85">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="85">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="23">
+      <c r="I2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="23">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>49</v>
@@ -1062,224 +1146,194 @@
       <c r="E3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="23">
+    </row>
+    <row r="4" spans="1:9" ht="23">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="6">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6">
         <v>7.04</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="23">
+    </row>
+    <row r="5" spans="1:9" ht="23">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6">
         <v>7.04</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="23">
+    </row>
+    <row r="6" spans="1:9" ht="23">
       <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="23">
+    </row>
+    <row r="7" spans="1:9" ht="23">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7.06</v>
       </c>
       <c r="D7" s="6">
-        <v>7.06</v>
-      </c>
-      <c r="E7" s="6">
         <v>8.1</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="G7" s="6">
-        <v>7.2</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="23">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="23">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="23">
+    </row>
+    <row r="9" spans="1:9" ht="23">
       <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="23">
+    </row>
+    <row r="10" spans="1:9" ht="23">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>106</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8.8000000000000007</v>
       </c>
       <c r="D10" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E10" s="6">
         <v>10.31</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="E10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="34">
+    </row>
+    <row r="11" spans="1:9" ht="34">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7.14</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="6">
-        <v>7.14</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="23">
+    </row>
+    <row r="13" spans="1:9" ht="23">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="7">
+        <v>77</v>
+      </c>
+      <c r="C13" s="7">
         <v>44760</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="23">
+    </row>
+    <row r="14" spans="1:9" ht="23">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1288,14 +1342,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="23">
+    </row>
+    <row r="15" spans="1:9" ht="23">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1304,14 +1357,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="23">
+    </row>
+    <row r="16" spans="1:9" ht="23">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1320,9 +1372,8 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="23">
+    </row>
+    <row r="17" spans="1:9" ht="23">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,14 +1385,13 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="23">
+    </row>
+    <row r="18" spans="1:9" ht="23">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1350,50 +1400,47 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="23">
+    </row>
+    <row r="19" spans="1:9" ht="23">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="23">
+    </row>
+    <row r="20" spans="1:9" ht="23">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
+      <c r="D20" s="6">
         <v>10.01</v>
       </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="23">
+    </row>
+    <row r="21" spans="1:9" ht="23">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1402,32 +1449,30 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="23">
+    </row>
+    <row r="22" spans="1:9" ht="23">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
+      <c r="D22" s="6">
         <v>8.31</v>
       </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" ht="23">
+    </row>
+    <row r="23" spans="1:9" ht="23">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1436,142 +1481,134 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="23">
+    </row>
+    <row r="24" spans="1:9" ht="23">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7">
+        <v>122</v>
+      </c>
+      <c r="C24" s="7">
         <v>44769</v>
       </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="22">
+    </row>
+    <row r="25" spans="1:9" ht="22">
       <c r="A25" s="1">
         <v>360</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7">
+        <v>87</v>
+      </c>
+      <c r="C25" s="7">
         <v>44769</v>
       </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="23">
+    </row>
+    <row r="26" spans="1:9" ht="23">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="C26" s="7">
+        <v>44774</v>
+      </c>
       <c r="D26" s="7">
-        <v>44774</v>
-      </c>
-      <c r="E26" s="7">
         <v>44862</v>
       </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="23">
+    </row>
+    <row r="27" spans="1:9" ht="23">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="23">
+    </row>
+    <row r="28" spans="1:9" ht="23">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7">
+        <v>95</v>
+      </c>
+      <c r="C28" s="7">
         <v>44766</v>
       </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" ht="23">
+    </row>
+    <row r="29" spans="1:9" ht="23">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7">
+        <v>94</v>
+      </c>
+      <c r="C29" s="7">
         <v>44766</v>
       </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" ht="23">
+    </row>
+    <row r="30" spans="1:9" ht="23">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7">
+        <v>93</v>
+      </c>
+      <c r="C30" s="7">
         <v>44766</v>
       </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" ht="23">
+    </row>
+    <row r="31" spans="1:9" ht="23">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1580,9 +1617,8 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="23">
+    </row>
+    <row r="32" spans="1:9" ht="23">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1594,14 +1630,13 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" ht="23">
+    </row>
+    <row r="33" spans="1:9" ht="23">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1610,14 +1645,13 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" ht="23">
+    </row>
+    <row r="34" spans="1:9" ht="23">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1626,32 +1660,30 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" ht="23">
+    </row>
+    <row r="35" spans="1:9" ht="23">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6">
+        <v>99</v>
+      </c>
+      <c r="C35" s="6">
         <v>8.02</v>
       </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" ht="23">
+    </row>
+    <row r="36" spans="1:9" ht="23">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1660,9 +1692,8 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" ht="23">
+    </row>
+    <row r="37" spans="1:9" ht="23">
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
@@ -1674,14 +1705,13 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" ht="23">
+    </row>
+    <row r="38" spans="1:9" ht="23">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1690,9 +1720,8 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" ht="23">
+    </row>
+    <row r="39" spans="1:9" ht="23">
       <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1704,14 +1733,13 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" ht="34">
+    </row>
+    <row r="40" spans="1:9" ht="34">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1720,14 +1748,13 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" ht="23">
+    </row>
+    <row r="41" spans="1:9" ht="23">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1736,9 +1763,8 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" ht="23">
+    </row>
+    <row r="42" spans="1:9" ht="23">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -1750,14 +1776,13 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" ht="23">
+    </row>
+    <row r="43" spans="1:9" ht="23">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1766,41 +1791,47 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" ht="23">
+    </row>
+    <row r="44" spans="1:9" ht="23">
       <c r="A44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>49</v>
+        <v>107</v>
+      </c>
+      <c r="C44" s="8">
+        <v>44781</v>
       </c>
       <c r="D44" s="8">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="8">
         <v>44781</v>
       </c>
-      <c r="E44" s="8">
-        <v>44850</v>
+      <c r="D45" s="8">
+        <v>44880</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="简历发送至邮箱cstchr@cstc.org.cn" xr:uid="{8539FA52-D675-9742-B992-73E04DCCC040}"/>
-    <hyperlink ref="B4" r:id="rId2" location="/campus/position" xr:uid="{D9DC9A7E-32CF-3F43-BACA-7BACFC3D5F9C}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{B8CA9743-E09B-CA46-812D-58C747C74281}"/>
-    <hyperlink ref="B23" r:id="rId4" xr:uid="{0D5E7EFB-8AAC-BC4A-B1C2-93B9A41CAC48}"/>
-    <hyperlink ref="B26" r:id="rId5" location="/?type=present" xr:uid="{AF28895E-3DAC-404C-9674-2BD64BD01589}"/>
-    <hyperlink ref="B35" r:id="rId6" xr:uid="{CADD60E3-5E0D-5648-A615-01D9169906D9}"/>
-    <hyperlink ref="B36" r:id="rId7" xr:uid="{82B7DB51-5E74-444D-8B56-4901746D9263}"/>
-    <hyperlink ref="B40" r:id="rId8" xr:uid="{F3A44883-606C-B74F-BBE8-50AA273C7580}"/>
-    <hyperlink ref="B41" r:id="rId9" xr:uid="{14524C42-6F48-274C-9670-66C89E2CDC4D}"/>
-    <hyperlink ref="B43" r:id="rId10" location="/" xr:uid="{CF5DAE84-C8C1-644E-BA17-DC52AA2CF6F3}"/>
-    <hyperlink ref="B10" r:id="rId11" location="/" xr:uid="{D767FC67-110A-D64B-850F-E404A986EE6B}"/>
-    <hyperlink ref="B22" r:id="rId12" xr:uid="{4F5E0212-0249-1C4F-A797-98BF50928E6A}"/>
-    <hyperlink ref="B24" r:id="rId13" xr:uid="{8951C0AF-0AA6-EB4B-8A42-A0200116F602}"/>
+    <hyperlink ref="B4" r:id="rId1" location="/campus/position" xr:uid="{D9DC9A7E-32CF-3F43-BACA-7BACFC3D5F9C}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{B8CA9743-E09B-CA46-812D-58C747C74281}"/>
+    <hyperlink ref="B23" r:id="rId3" xr:uid="{0D5E7EFB-8AAC-BC4A-B1C2-93B9A41CAC48}"/>
+    <hyperlink ref="B26" r:id="rId4" location="/?type=present" xr:uid="{AF28895E-3DAC-404C-9674-2BD64BD01589}"/>
+    <hyperlink ref="B35" r:id="rId5" xr:uid="{CADD60E3-5E0D-5648-A615-01D9169906D9}"/>
+    <hyperlink ref="B36" r:id="rId6" xr:uid="{82B7DB51-5E74-444D-8B56-4901746D9263}"/>
+    <hyperlink ref="B40" r:id="rId7" xr:uid="{F3A44883-606C-B74F-BBE8-50AA273C7580}"/>
+    <hyperlink ref="B41" r:id="rId8" xr:uid="{14524C42-6F48-274C-9670-66C89E2CDC4D}"/>
+    <hyperlink ref="B43" r:id="rId9" location="/" xr:uid="{CF5DAE84-C8C1-644E-BA17-DC52AA2CF6F3}"/>
+    <hyperlink ref="B10" r:id="rId10" location="/" xr:uid="{D767FC67-110A-D64B-850F-E404A986EE6B}"/>
+    <hyperlink ref="B22" r:id="rId11" xr:uid="{4F5E0212-0249-1C4F-A797-98BF50928E6A}"/>
+    <hyperlink ref="B24" r:id="rId12" xr:uid="{8951C0AF-0AA6-EB4B-8A42-A0200116F602}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1808,26 +1839,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C510C1-FE06-2A40-90B2-49BDE09299BE}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="48.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="25">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1835,253 +1866,559 @@
         <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="46">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="9">
+        <v>88</v>
+      </c>
+      <c r="C2" s="9">
         <v>44788</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>131</v>
+      <c r="D2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="H2" s="9">
+        <v>44774</v>
       </c>
       <c r="I2" s="9">
-        <v>44774</v>
-      </c>
-      <c r="J2" s="9">
         <v>44862</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="46">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="46">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="9">
+        <v>44788</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="9">
-        <v>44788</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>112</v>
+      <c r="H3" s="9">
+        <v>44774</v>
       </c>
       <c r="I3" s="9">
-        <v>44774</v>
-      </c>
-      <c r="J3" s="9">
         <v>44803</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="46">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="46">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="9">
+        <v>118</v>
+      </c>
+      <c r="C4" s="9">
         <v>44788</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="9">
+      <c r="D4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="9">
         <v>44774</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="46">
+      <c r="I4" s="9"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="23">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="9">
+        <v>117</v>
+      </c>
+      <c r="C5" s="9">
         <v>44788</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>131</v>
+      <c r="D5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="9">
+        <v>115</v>
+      </c>
+      <c r="H5" s="9">
         <v>44753</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="46">
+      <c r="I5" s="9"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="46">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="9">
+        <v>44754</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="9">
-        <v>44754</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="46">
+      <c r="G6" s="1"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="46">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="9">
+        <v>44788</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="9">
-        <v>44788</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="92">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="92">
       <c r="A8" s="1">
         <v>360</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="9">
+        <v>44788</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="9">
-        <v>44788</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="69">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="1"/>
+      <c r="C9" s="9">
+        <v>44791</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="23">
+      <c r="A10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="9">
+        <v>44791</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="46">
+      <c r="A11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="9">
+        <v>44791</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="46">
+      <c r="A12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="9">
+        <v>44792</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="46">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="9">
+        <v>44792</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="46">
+      <c r="A14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="9">
+        <v>44792</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="46">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="9">
+        <v>44792</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="22">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="22">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="22">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="22">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="22">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="22">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="22">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="22">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="22">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="22">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="22">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="22">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="22">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="/myDeliver?type=present" xr:uid="{0BAD52ED-8C4A-AD4D-B652-3AB1C8CD849B}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{7E30B503-F015-7A4F-A35D-CF5FC4CD8A42}"/>
+    <hyperlink ref="E2" r:id="rId1" location="/myDeliver?type=present" xr:uid="{0BAD52ED-8C4A-AD4D-B652-3AB1C8CD849B}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{7E30B503-F015-7A4F-A35D-CF5FC4CD8A42}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{8E197F2E-9578-4642-9DAE-7A12B7DCDB97}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{3FF865D0-2A17-AE4B-85F6-96616394ACAA}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{98945A25-3DDB-274D-8CD0-13A271AAE80D}"/>
     <hyperlink ref="B3" r:id="rId6" xr:uid="{DB62FDA1-451D-0543-A3E0-A30D25988CE3}"/>
     <hyperlink ref="B2" r:id="rId7" location="/?type=present" xr:uid="{03660D8E-D78E-934C-B91E-AE5F036FC39C}"/>
     <hyperlink ref="B7" r:id="rId8" xr:uid="{1AAE49A6-3AA4-1446-A5C0-C19E3468ABE0}"/>
-    <hyperlink ref="F7" r:id="rId9" xr:uid="{43A30637-3B21-8444-8971-E6C5F3A38BB5}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{43A30637-3B21-8444-8971-E6C5F3A38BB5}"/>
     <hyperlink ref="B8" r:id="rId10" xr:uid="{F7E59D7B-B1AA-8D49-A188-1164C2F3D8B2}"/>
+    <hyperlink ref="E5" r:id="rId11" xr:uid="{9C008AF9-F7BC-AA4F-9612-E804176015AC}"/>
+    <hyperlink ref="E10" r:id="rId12" xr:uid="{CC88F09B-AA15-DD4B-9C2F-777C896A0449}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{9C156E97-C328-344D-B61B-154767D86E41}"/>
+    <hyperlink ref="E13" r:id="rId14" xr:uid="{884DAFF2-096B-0948-9C47-9678F5D3F8AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2092,7 +2429,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2114,7 +2451,7 @@
         <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>42</v>
@@ -2129,13 +2466,13 @@
         <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="23">
@@ -2143,19 +2480,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -2167,28 +2504,28 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="E3" s="6">
         <v>8.0500000000000007</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="6">
         <v>7.11</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="J3" s="6"/>
     </row>
@@ -2197,7 +2534,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2213,7 +2550,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2229,24 +2566,24 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="7">
         <v>44769</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="J6" s="6"/>
     </row>

--- a/01 秋招资料/招聘信息汇总.xlsx
+++ b/01 秋招资料/招聘信息汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iiixv/Documents/Notebook/01 秋招资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4897F7-E9C6-714B-812C-6EB93BB64A73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C10D245-772B-0849-BA13-DC5C378DD5D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F54258CB-92F9-234B-A0D3-16063D77C905}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="174">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,10 +518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>筛选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,6 +616,71 @@
   <si>
     <t>校招-后端开发工程师-整车研发（第二志愿）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/sangfor/27944#/?anchorName=default_banner&amp;sourceToken=</t>
+  </si>
+  <si>
+    <t>筛选(提前批)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/sangfor/27944#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t>Python开发工程师（提前批 成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.mihoyo.com/#/campus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.mihoyo.com/#/campus/applyRecord</t>
+  </si>
+  <si>
+    <t>Java后端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.didiglobal.com/campus_apply/didiglobal/6223#/?anchorName=default_banner&amp;sourceToken=</t>
+  </si>
+  <si>
+    <t>https://campus.didiglobal.com/campus_apply/didiglobal/6223#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t>笔试（结束）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选（已处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.cvte.com/zone/resume/applications</t>
+  </si>
+  <si>
+    <t>笔试(08-31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视源股份(提前批)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web后台开发工程师 </t>
   </si>
 </sst>
 </file>
@@ -674,7 +735,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,6 +745,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,6 +822,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5272D451-109C-3F4D-8230-0B9995B3B1B8}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="110" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1808,7 +1893,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="8">
         <v>44781</v>
@@ -1841,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C510C1-FE06-2A40-90B2-49BDE09299BE}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1901,7 +1986,7 @@
         <v>44788</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>109</v>
@@ -1931,7 +2016,7 @@
         <v>44788</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>113</v>
@@ -1961,7 +2046,7 @@
         <v>44788</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -1985,7 +2070,7 @@
         <v>44788</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>126</v>
@@ -2002,29 +2087,29 @@
       <c r="I5" s="9"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="46">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="46">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <v>44754</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="46">
       <c r="A7" s="1" t="s">
@@ -2037,7 +2122,7 @@
         <v>44788</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>121</v>
@@ -2050,7 +2135,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="92">
+    <row r="8" spans="1:10" ht="51">
       <c r="A8" s="1">
         <v>360</v>
       </c>
@@ -2061,9 +2146,9 @@
         <v>44788</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2076,27 +2161,27 @@
       <c r="I8" s="9"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="69">
+    <row r="9" spans="1:10" ht="34">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="9">
         <v>44791</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -2104,22 +2189,22 @@
     </row>
     <row r="10" spans="1:10" ht="23">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="9">
         <v>44791</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="9"/>
@@ -2128,22 +2213,22 @@
     </row>
     <row r="11" spans="1:10" ht="46">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9">
         <v>44791</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="9"/>
@@ -2152,22 +2237,22 @@
     </row>
     <row r="12" spans="1:10" ht="46">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="9">
         <v>44792</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="9"/>
@@ -2185,13 +2270,13 @@
         <v>44792</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="9"/>
@@ -2200,22 +2285,22 @@
     </row>
     <row r="14" spans="1:10" ht="46">
       <c r="A14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C14" s="9">
         <v>44792</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="9"/>
@@ -2233,62 +2318,110 @@
         <v>44792</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="22">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    <row r="16" spans="1:10" ht="69">
+      <c r="A16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="9">
+        <v>44793</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="22">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+    <row r="17" spans="1:10" ht="23">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="9">
+        <v>44797</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="22">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+    <row r="18" spans="1:10" ht="69">
+      <c r="A18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="9">
+        <v>44797</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="22">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+    <row r="19" spans="1:10" ht="46">
+      <c r="A19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="9">
+        <v>44797</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2419,6 +2552,9 @@
     <hyperlink ref="E10" r:id="rId12" xr:uid="{CC88F09B-AA15-DD4B-9C2F-777C896A0449}"/>
     <hyperlink ref="B13" r:id="rId13" xr:uid="{9C156E97-C328-344D-B61B-154767D86E41}"/>
     <hyperlink ref="E13" r:id="rId14" xr:uid="{884DAFF2-096B-0948-9C47-9678F5D3F8AE}"/>
+    <hyperlink ref="B17" r:id="rId15" location="/campus" xr:uid="{D8F58B25-FC40-4D4D-AE09-2339F2318B69}"/>
+    <hyperlink ref="E8" r:id="rId16" xr:uid="{3FCD14E2-3D91-2445-92CD-4CE114D8A151}"/>
+    <hyperlink ref="E9" r:id="rId17" location="/candidateHome/applications" xr:uid="{3EDE88CC-9364-4947-9430-80F6E2905C15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
